--- a/data/trans_dic/P32B-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32B-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.02255203860280208</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03125646551315157</v>
+        <v>0.03125646551315156</v>
       </c>
     </row>
     <row r="5">
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02391252516784232</v>
+        <v>0.02352468075155185</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01717483840641399</v>
+        <v>0.01862515980903742</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01801698345573866</v>
+        <v>0.01867657084926063</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002990814018229848</v>
+        <v>0.003026210819940831</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005691751677012235</v>
+        <v>0.00587855105513163</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00195763995930585</v>
+        <v>0.001942304940758552</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01615764903932799</v>
+        <v>0.0172949736796239</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01376583417102716</v>
+        <v>0.01368093725456774</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01809390511024941</v>
+        <v>0.01698553617548079</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02118097816963212</v>
+        <v>0.02332242787367771</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05794197060225338</v>
+        <v>0.05648489083522196</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0475574476536776</v>
+        <v>0.05064043044872867</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06814339854243444</v>
+        <v>0.06752130524881969</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03810107384966906</v>
+        <v>0.04062690627686225</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01839161758472661</v>
+        <v>0.01897217796530537</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02525860610718785</v>
+        <v>0.02563931720459715</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04766704623424578</v>
+        <v>0.05115729226687781</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02194523584493697</v>
+        <v>0.02013382500001037</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03897375129576528</v>
+        <v>0.04022904626655679</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03502605251542605</v>
+        <v>0.03420751403042609</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05255794026549981</v>
+        <v>0.04996897905610936</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001531361560317586</v>
+        <v>0.001534418204325023</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01382951647324534</v>
+        <v>0.01541228155369253</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008684325216964843</v>
+        <v>0.009036469535609442</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.009329830126746879</v>
+        <v>0.008710075518088107</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0005121419454750184</v>
+        <v>0.00321763297796062</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005354911120946521</v>
+        <v>0.005401365840353421</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002269477953343305</v>
+        <v>0.002843563295317461</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002762496222064007</v>
+        <v>0.003331633916215286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0118840781454595</v>
+        <v>0.01130003130581987</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009737088757249452</v>
+        <v>0.009708197026969172</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.008580690111089903</v>
+        <v>0.009072886350426442</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01695244777749272</v>
+        <v>0.01777246472767711</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03846963498489558</v>
+        <v>0.03941251186273162</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0319937331958903</v>
+        <v>0.03334127895103371</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0473212610461835</v>
+        <v>0.04924903644719016</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02897424285241473</v>
+        <v>0.02874006297425412</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0248958074170653</v>
+        <v>0.02839359203481651</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03369076202674368</v>
+        <v>0.02938090217052336</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02493373645119351</v>
+        <v>0.02716559615695258</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01517977528141547</v>
+        <v>0.01605137372431573</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03014367980021793</v>
+        <v>0.02992248444633852</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02835456685107545</v>
+        <v>0.02832559718314143</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03380289918364634</v>
+        <v>0.0335089618269781</v>
       </c>
     </row>
     <row r="10">
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004193387989859482</v>
+        <v>0.00399557057292074</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01238208455140576</v>
+        <v>0.01335309735744405</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005827463356606086</v>
+        <v>0.007153218172837577</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008733447902702142</v>
+        <v>0.009616542644076515</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003465065172215204</v>
+        <v>0.003489164625262752</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.00814162045142431</v>
+        <v>0.0073130583541983</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.00419975195937483</v>
+        <v>0.003940617939899406</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01119893528015217</v>
+        <v>0.01116522285786673</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.00374340286431751</v>
+        <v>0.00425454685818932</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01092873254186514</v>
+        <v>0.01098865342168711</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02162030336306986</v>
+        <v>0.02143137983982036</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04360809743194421</v>
+        <v>0.04512750342488927</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02905494087382786</v>
+        <v>0.02850470734991452</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03731838338056952</v>
+        <v>0.03922551578028378</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02450765316998871</v>
+        <v>0.02409821331371411</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0283370997454058</v>
+        <v>0.03150431913866952</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.05734780146231349</v>
+        <v>0.05061944057971787</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01733957250549776</v>
+        <v>0.01752366537352444</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03332537758577379</v>
+        <v>0.03313552954118332</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01725200881469565</v>
+        <v>0.01685751692178167</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03445257458152651</v>
+        <v>0.03620912006571086</v>
       </c>
     </row>
     <row r="13">
@@ -1115,35 +1115,35 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01242933604571949</v>
+        <v>0.01263686537840145</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009059478508456807</v>
+        <v>0.009067263231154365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005564216194139783</v>
+        <v>0.005618779514526032</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
-        <v>0.005486500489967612</v>
+        <v>0.005068721290015029</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.007916419636919615</v>
+        <v>0.009149977607518836</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.00237066392139082</v>
+        <v>0.002323102603156234</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.009162793293479176</v>
+        <v>0.008468240125509872</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01144464205814919</v>
+        <v>0.01143886196494</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.009109274691680229</v>
+        <v>0.009505597581433812</v>
       </c>
     </row>
     <row r="15">
@@ -1154,38 +1154,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01782559191501135</v>
+        <v>0.01785345029769307</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05727068631557408</v>
+        <v>0.05501357279169656</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0480279933536366</v>
+        <v>0.04640605310092122</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02907036340267639</v>
+        <v>0.0286802430677671</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04701509695544307</v>
+        <v>0.05718755907731731</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.05420464732430659</v>
+        <v>0.04846391024729163</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05869983634008965</v>
+        <v>0.05649686633656587</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02020742998397903</v>
+        <v>0.01979022079932519</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03733183624967483</v>
+        <v>0.03605535588622126</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03937012975028972</v>
+        <v>0.04058786838734928</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03163459645798057</v>
+        <v>0.03120750959064695</v>
       </c>
     </row>
     <row r="16">
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.003991730934081699</v>
+        <v>0.004017321255853033</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02240739949644242</v>
+        <v>0.02186264486892662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01498915980814757</v>
+        <v>0.01527598841174035</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01416745036013796</v>
+        <v>0.01417677682532536</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.004709199611185757</v>
+        <v>0.004590180188940664</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.002928626822430458</v>
+        <v>0.002894420787385138</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.005701752969956744</v>
+        <v>0.005916651421307315</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01105224526127685</v>
+        <v>0.01191826557873045</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00498463319402283</v>
+        <v>0.005226083830905457</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01629746616160213</v>
+        <v>0.01647461728991308</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01261216472161185</v>
+        <v>0.01296657854781257</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01497970917050019</v>
+        <v>0.01496629279811967</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01251302831056319</v>
+        <v>0.01269236820975236</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03761873366824832</v>
+        <v>0.03689358491643654</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02863830286502797</v>
+        <v>0.02872368250196374</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03034370896578864</v>
+        <v>0.03073566677299864</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01812007082451359</v>
+        <v>0.01878356764185522</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01389995101759996</v>
+        <v>0.01374028508526989</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01780158031972919</v>
+        <v>0.0179584604103814</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03223265092003377</v>
+        <v>0.03191356786253947</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0123377624586268</v>
+        <v>0.01250957511871593</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02693218157584418</v>
+        <v>0.02725633434159109</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02234005155877144</v>
+        <v>0.02216921173292627</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02699873613050617</v>
+        <v>0.02693658868108399</v>
       </c>
     </row>
     <row r="19">
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14441</v>
+        <v>14206</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10181</v>
+        <v>11041</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3855</v>
+        <v>3996</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14325</v>
+        <v>15334</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>12716</v>
+        <v>12637</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5974</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="7">
@@ -1636,40 +1636,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6349</v>
+        <v>6991</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34991</v>
+        <v>34111</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28191</v>
+        <v>30019</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14581</v>
+        <v>14448</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6955</v>
+        <v>7416</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5199</v>
+        <v>5364</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8359</v>
+        <v>8485</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5540</v>
+        <v>5945</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10584</v>
+        <v>9710</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>34554</v>
+        <v>35667</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>32354</v>
+        <v>31598</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17354</v>
+        <v>16499</v>
       </c>
     </row>
     <row r="8">
@@ -1772,40 +1772,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8146</v>
+        <v>9079</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4732</v>
+        <v>4924</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4274</v>
+        <v>3990</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>163</v>
+        <v>1023</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1746</v>
+        <v>1762</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>555</v>
+        <v>695</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2432</v>
+        <v>2933</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>10780</v>
+        <v>10251</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>8481</v>
+        <v>8456</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6027</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="11">
@@ -1816,40 +1816,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10725</v>
+        <v>11244</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22661</v>
+        <v>23216</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17433</v>
+        <v>18167</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21676</v>
+        <v>22559</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7177</v>
+        <v>7119</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7919</v>
+        <v>9031</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10988</v>
+        <v>9582</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6092</v>
+        <v>6638</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>13364</v>
+        <v>14131</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27344</v>
+        <v>27144</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>24697</v>
+        <v>24672</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>23743</v>
+        <v>23537</v>
       </c>
     </row>
     <row r="12">
@@ -1952,38 +1952,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2752</v>
+        <v>2622</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6774</v>
+        <v>7305</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3093</v>
+        <v>3797</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4417</v>
+        <v>4864</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>2175</v>
+        <v>1954</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4086</v>
+        <v>3834</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9229</v>
+        <v>9202</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3078</v>
+        <v>3499</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8447</v>
+        <v>8493</v>
       </c>
     </row>
     <row r="15">
@@ -1994,38 +1994,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14188</v>
+        <v>14064</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23858</v>
+        <v>24689</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15422</v>
+        <v>15130</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18875</v>
+        <v>19839</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7763</v>
+        <v>7633</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7851</v>
+        <v>8728</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>15320</v>
+        <v>13523</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>16871</v>
+        <v>17050</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>27465</v>
+        <v>27308</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>14187</v>
+        <v>13863</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>26629</v>
+        <v>27987</v>
       </c>
     </row>
     <row r="16">
@@ -2131,35 +2131,35 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3666</v>
+        <v>3728</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2890</v>
+        <v>2893</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2689</v>
+        <v>2716</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>1033</v>
+        <v>954</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2129</v>
+        <v>2461</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>970</v>
+        <v>951</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4238</v>
+        <v>3916</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>6853</v>
+        <v>7151</v>
       </c>
     </row>
     <row r="19">
@@ -2170,38 +2170,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4929</v>
+        <v>4936</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16894</v>
+        <v>16228</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15322</v>
+        <v>14805</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14050</v>
+        <v>13862</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6245</v>
+        <v>7596</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>10207</v>
+        <v>9126</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>15788</v>
+        <v>15196</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>8271</v>
+        <v>8101</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>17265</v>
+        <v>16674</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>19974</v>
+        <v>20591</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>23798</v>
+        <v>23477</v>
       </c>
     </row>
     <row r="20">
@@ -2304,40 +2304,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7445</v>
+        <v>7493</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>45600</v>
+        <v>44491</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>29791</v>
+        <v>30361</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23534</v>
+        <v>23549</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4143</v>
+        <v>4039</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3061</v>
+        <v>3026</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6482</v>
+        <v>6727</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>9910</v>
+        <v>10687</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>13683</v>
+        <v>14345</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>50202</v>
+        <v>50747</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>39405</v>
+        <v>40513</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>38315</v>
+        <v>38281</v>
       </c>
     </row>
     <row r="23">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23338</v>
+        <v>23673</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>76555</v>
+        <v>75079</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>56918</v>
+        <v>57088</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>50405</v>
+        <v>51056</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15943</v>
+        <v>16526</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>14530</v>
+        <v>14363</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>20239</v>
+        <v>20417</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>28902</v>
+        <v>28616</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>33867</v>
+        <v>34338</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>82960</v>
+        <v>83959</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>69799</v>
+        <v>69265</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>69057</v>
+        <v>68898</v>
       </c>
     </row>
     <row r="24">
